--- a/biology/Histoire de la zoologie et de la botanique/Robert_Rush_Miller/Robert_Rush_Miller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Rush_Miller/Robert_Rush_Miller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Rush Miller est un ichtyologiste américain, né le 23 avril 1916 à Colorado Springs et mort le 10 février 2003.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études au Pomona College puis les poursuit à l’université de Californie (Berkeley) où il obtient son Bachelor of Arts en 1938. De 1939 à 1944, il est assistant à l’université du Michigan où il obtient son doctorat en zoologie.
 De 1944 à 1948, il est conservateur assistant des poissons à la Smithsonian Institution puis entre de nouveau à l’université du Michigan où il va faire toute sa carrière. Il est professeur assistant en zoologie (1948-1954), puis professeur associé toujours en zoologie (1954-1959), puis professeur des sciences biologiques à partir de 1960. En parallèle, il est conservateur des poissons au musée de zoologie de l’université.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1948 : avec Carl Leavitt Hubbs (1894-1979), « The Zoological Evidence: Correlation Between Fish Distribution and Hydrographic History in the Desert Basins of Western United States ».
 1961 : « Man and the Changing Fish Fauna of the American Southwest », Papers of the Michigan Academy of Science, Arts, and Letters.
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Chrono-biographical Sketch.</t>
         </is>
